--- a/SOO_paramInfo/DP1000_room_Swift_NDBR50_curve1/paramInfo.xlsx
+++ b/SOO_paramInfo/DP1000_room_Swift_NDBR50_curve1/paramInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>parameter</t>
   </si>
@@ -28,22 +28,43 @@
     <t>exponent</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
     <t>c1</t>
   </si>
   <si>
     <t>1e3</t>
   </si>
   <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>MPa</t>
+  </si>
+  <si>
     <t>c2</t>
   </si>
   <si>
     <t>1e-4</t>
   </si>
   <si>
+    <t>ε₀</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
     <t>c3</t>
   </si>
   <si>
-    <t>1e-2</t>
+    <t>1e-1</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -51,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,12 +83,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -99,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -107,7 +122,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -119,7 +134,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -131,11 +146,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,7 +459,7 @@
   <cols>
     <col min="1" max="1" style="10" width="20.862142857142857" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="11" width="36.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="17.719285714285714" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="10" width="30.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -476,8 +488,12 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -491,7 +507,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -500,10 +516,14 @@
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -517,7 +537,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -526,10 +546,14 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -543,7 +567,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -552,10 +576,14 @@
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
